--- a/Bug report.xlsx
+++ b/Bug report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Repositories\Portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5481A8A2-E403-4783-89EB-A2926FF5E6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844DDA77-C78F-4BD5-B6B4-30DF5BA19586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dedeman1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="76">
   <si>
     <t>Bug ID</t>
   </si>
@@ -152,9 +152,6 @@
     <t>Only the last checkbox ticked will remain selected</t>
   </si>
   <si>
-    <t>Link to screenshot</t>
-  </si>
-  <si>
     <t>Add to basket tab is falsely active</t>
   </si>
   <si>
@@ -186,30 +183,6 @@
     <t>If the product is out of stock, the tab should be inactive</t>
   </si>
   <si>
-    <t>https://github.com/ValentinIordache92/Portfolio/blob/main/Add_to_basket1.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/ValentinIordache92/Portfolio/blob/main/Add_to_basket2.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/ValentinIordache92/Portofoliu/blob/main/Checkbox2.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/ValentinIordache92/Portofoliu/blob/main/Checkbox3.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/ValentinIordache92/Portofoliu/blob/main/Checkbox4.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/ValentinIordache92/Portofoliu/blob/main/Checkbox1.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/ValentinIordache92/Portfolio/blob/main/Choose_your_city1.jpg</t>
-  </si>
-  <si>
-    <t>https://github.com/ValentinIordache92/Portfolio/blob/main/Choose_your_city2.jpg</t>
-  </si>
-  <si>
     <t>BUG_04</t>
   </si>
   <si>
@@ -235,9 +208,6 @@
     <t>Job openings from Bucharest and Barcelona offices are listed</t>
   </si>
   <si>
-    <t>https://github.com/ValentinIordache92/Portfolio/blob/main/Suvoda%20bug3.png</t>
-  </si>
-  <si>
     <t>BUG_05</t>
   </si>
   <si>
@@ -251,9 +221,6 @@
   </si>
   <si>
     <t>Select "Bucharest" office from the "All offices" dropdown menu</t>
-  </si>
-  <si>
-    <t>https://github.com/ValentinIordache92/Portfolio/blob/main/Suvoda%20bug4.png</t>
   </si>
   <si>
     <t>Incorrect job openings are listed when selecting Conshohocken office</t>
@@ -297,18 +264,6 @@
   <si>
     <t>When I hover over the product it should appear Add to basket (Adauga in cos) and when I click it the product should appear in my basket.</t>
   </si>
-  <si>
-    <t>https://github.com/ValentinIordache92/Portfolio/blob/main/bioderma_bug1.png</t>
-  </si>
-  <si>
-    <t>https://github.com/ValentinIordache92/Portfolio/blob/main/bioderma_bug2.png</t>
-  </si>
-  <si>
-    <t>https://github.com/ValentinIordache92/Portfolio/blob/main/bioderma_bug3.png</t>
-  </si>
-  <si>
-    <t>https://github.com/ValentinIordache92/Portfolio/blob/main/bioderma_bug4.png</t>
-  </si>
 </sst>
 </file>
 
@@ -317,7 +272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -407,6 +362,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="4">
@@ -574,7 +537,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -615,6 +578,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -624,38 +599,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -665,23 +619,35 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -707,14 +673,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>127781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>24740</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>121919</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>3252</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>128952</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -743,8 +709,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10774680"/>
-          <a:ext cx="7568540" cy="3642359"/>
+          <a:off x="0" y="12308058"/>
+          <a:ext cx="10319560" cy="4983479"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -761,10 +727,10 @@
       <xdr:rowOff>182879</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>8910</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>31419</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -793,8 +759,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7147559"/>
-          <a:ext cx="7552710" cy="3634741"/>
+          <a:off x="0" y="7181556"/>
+          <a:ext cx="10347727" cy="4998721"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -816,10 +782,10 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>157257</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>518056</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -848,8 +814,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6530340"/>
-          <a:ext cx="8275320" cy="3982497"/>
+          <a:off x="0" y="6528183"/>
+          <a:ext cx="10237150" cy="4887440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -861,15 +827,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:colOff>28754</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>43993</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>160020</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>153591</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>541</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>28753</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -898,8 +864,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="10530840"/>
-          <a:ext cx="8267700" cy="3978831"/>
+          <a:off x="28754" y="11775918"/>
+          <a:ext cx="10237221" cy="4887439"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -912,14 +878,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>30479</xdr:rowOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>131121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>16144</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>4817</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>129396</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -948,8 +914,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14546579"/>
-          <a:ext cx="8282940" cy="3986165"/>
+          <a:off x="0" y="17082027"/>
+          <a:ext cx="10270251" cy="4900954"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -962,14 +928,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>109267</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>145399</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57509</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>132765</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -998,8 +964,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="18508980"/>
-          <a:ext cx="8298180" cy="3993499"/>
+          <a:off x="0" y="22279154"/>
+          <a:ext cx="10322943" cy="4926177"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1018,13 +984,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>-1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>107679</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>522513</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>128761</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1053,8 +1019,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="6256020"/>
-          <a:ext cx="7871460" cy="3788139"/>
+          <a:off x="0" y="6302828"/>
+          <a:ext cx="10178142" cy="5027333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1066,15 +1032,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>50073</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>157843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>36289</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>532893</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>108857</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1103,8 +1069,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="60960" y="10050780"/>
-          <a:ext cx="7818120" cy="3762469"/>
+          <a:off x="50073" y="11685814"/>
+          <a:ext cx="10138449" cy="5012872"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1126,10 +1092,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>13334</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>68102</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1158,8 +1124,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5943600"/>
-          <a:ext cx="7772400" cy="4371974"/>
+          <a:off x="0" y="5753100"/>
+          <a:ext cx="11391900" cy="6407942"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1181,10 +1147,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>165734</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>598529</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1213,8 +1179,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="5638800"/>
-          <a:ext cx="7772400" cy="4371974"/>
+          <a:off x="0" y="5448300"/>
+          <a:ext cx="11426549" cy="6286500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1236,10 +1202,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>303954</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>82930</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1268,8 +1234,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7338060"/>
-          <a:ext cx="8480214" cy="4770120"/>
+          <a:off x="0" y="7384676"/>
+          <a:ext cx="11149853" cy="6178930"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1282,14 +1248,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>72166</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>318345</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>84294</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>19476</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>178846</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1318,8 +1284,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="12336780"/>
-          <a:ext cx="8494605" cy="4778214"/>
+          <a:off x="0" y="13732137"/>
+          <a:ext cx="11180535" cy="6202680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1331,15 +1297,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>69533</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>139456</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>89534</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>593912</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>160331</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1368,8 +1334,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7620" y="17283113"/>
-          <a:ext cx="8488680" cy="4774881"/>
+          <a:off x="0" y="20254015"/>
+          <a:ext cx="11149853" cy="6116875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1381,15 +1347,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>21515</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>173354</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>98492</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1418,8 +1384,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="45720" y="22296120"/>
-          <a:ext cx="8503920" cy="4783454"/>
+          <a:off x="56029" y="26769956"/>
+          <a:ext cx="11138647" cy="6172977"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1708,8 +1674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q994"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.6"/>
@@ -1722,61 +1688,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="34.799999999999997" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="39" customHeight="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="37" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="50" t="s">
         <v>6</v>
       </c>
       <c r="J3" s="3" t="s">
@@ -1785,20 +1751,20 @@
       <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" ht="48" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="5"/>
@@ -1813,10 +1779,10 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -1839,21 +1805,21 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="30">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="43" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="6"/>
@@ -1871,117 +1837,117 @@
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="28"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="10">
         <v>1</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="10">
         <v>3</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="10">
         <v>4</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="10">
         <v>5</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
     </row>
     <row r="18" spans="1:17" ht="46.8" customHeight="1">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="13"/>
@@ -1996,20 +1962,20 @@
       <c r="D20" s="13"/>
     </row>
     <row r="22" spans="1:17" ht="37.799999999999997" customHeight="1">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="25" spans="1:17">
       <c r="A25" s="14" t="s">
@@ -2017,305 +1983,295 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="23"/>
-      <c r="O28" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="23"/>
-      <c r="O29" s="17" t="s">
-        <v>57</v>
-      </c>
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+      <c r="O29" s="17"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="23"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
       <c r="Q30" s="16"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="23"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
-    </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="23"/>
-    </row>
-    <row r="34" spans="1:15">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23"/>
-    </row>
-    <row r="35" spans="1:15">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="23"/>
-    </row>
-    <row r="36" spans="1:15">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="23"/>
-    </row>
-    <row r="37" spans="1:15">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="23"/>
-    </row>
-    <row r="38" spans="1:15">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="26"/>
-    </row>
-    <row r="40" spans="1:15">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="1:15">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="23"/>
-    </row>
-    <row r="42" spans="1:15">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="23"/>
-    </row>
-    <row r="43" spans="1:15">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="23"/>
-    </row>
-    <row r="44" spans="1:15">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="23"/>
-    </row>
-    <row r="45" spans="1:15">
-      <c r="A45" s="21"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="23"/>
-    </row>
-    <row r="46" spans="1:15">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="23"/>
-    </row>
-    <row r="47" spans="1:15">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="23"/>
-    </row>
-    <row r="48" spans="1:15">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="23"/>
-      <c r="O48" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="29"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="29"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="29"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="29"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="30"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="29"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="27"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="29"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="27"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="29"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="27"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="29"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="29"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="27"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="29"/>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="23"/>
-      <c r="O49" s="17" t="s">
-        <v>58</v>
-      </c>
+      <c r="A49" s="27"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="29"/>
+      <c r="O49" s="17"/>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="23"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="24"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="65" s="4" customFormat="1"/>
     <row r="66" s="4" customFormat="1"/>
@@ -3249,6 +3205,16 @@
     <row r="994" s="4" customFormat="1"/>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="A27:J38"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B14:J14"/>
+    <mergeCell ref="B15:J15"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:G3"/>
@@ -3265,24 +3231,10 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="B14:J14"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="A27:J38"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:J22"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="O29" r:id="rId1" xr:uid="{2CD33DFA-4309-4275-8CAE-A7DD9C4E176F}"/>
-    <hyperlink ref="O49" r:id="rId2" xr:uid="{8661782C-5BFC-4AD2-8340-555226C5C21F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3290,8 +3242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{589DDBBC-EDAB-467E-9E26-080BE243F4B0}">
   <dimension ref="A1:P994"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A100" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="P113" sqref="P113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.6"/>
@@ -3304,57 +3256,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="39" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="45" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="35" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="40.200000000000003" customHeight="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="37" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
@@ -3367,20 +3319,20 @@
       <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="35" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -3395,10 +3347,10 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -3421,21 +3373,21 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="36" customHeight="1">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="43" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="31"/>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="6"/>
@@ -3454,117 +3406,117 @@
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="28"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" customHeight="1">
       <c r="A12" s="10">
         <v>1</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="34"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="10">
         <v>3</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="10">
         <v>4</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:11" ht="19.8" customHeight="1">
       <c r="A16" s="10">
         <v>5</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
     </row>
     <row r="17" spans="1:16" ht="12.75" customHeight="1">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
     </row>
     <row r="18" spans="1:16" ht="27" customHeight="1">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="29" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="34"/>
     </row>
     <row r="19" spans="1:16" ht="12.75" customHeight="1">
       <c r="A19" s="13"/>
@@ -3580,20 +3532,20 @@
     </row>
     <row r="21" spans="1:16" ht="12.75" customHeight="1"/>
     <row r="22" spans="1:16" ht="34.799999999999997" customHeight="1">
-      <c r="A22" s="32" t="s">
+      <c r="A22" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="33"/>
-      <c r="C22" s="34" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="34"/>
     </row>
     <row r="23" spans="1:16" ht="12.75" customHeight="1"/>
     <row r="24" spans="1:16" ht="12.75" customHeight="1"/>
@@ -3604,610 +3556,594 @@
     </row>
     <row r="26" spans="1:16" ht="12.75" customHeight="1"/>
     <row r="27" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="23"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29"/>
     </row>
     <row r="29" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="23"/>
-      <c r="P29" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="23"/>
-      <c r="P30" s="17" t="s">
-        <v>56</v>
-      </c>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
+      <c r="P30" s="17"/>
     </row>
     <row r="31" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="23"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
     </row>
     <row r="32" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="23"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="29"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="23"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="23"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="29"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="23"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="29"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A38" s="24"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="26"/>
+      <c r="A38" s="30"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="32"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="40" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
+      <c r="A40" s="24"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="25"/>
+      <c r="E40" s="25"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
+      <c r="J40" s="26"/>
     </row>
     <row r="41" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A41" s="21"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="23"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="29"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="23"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="29"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="23"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="23"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A45" s="21"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="23"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="29"/>
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="23"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="29"/>
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="23"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="29"/>
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="23"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="29"/>
     </row>
     <row r="49" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="23"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="29"/>
     </row>
     <row r="50" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="23"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A51" s="24"/>
-      <c r="B51" s="25"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="25"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="25"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="25"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="26"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="31"/>
+      <c r="E51" s="31"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+      <c r="J51" s="32"/>
     </row>
     <row r="52" spans="1:16" ht="12.75" customHeight="1"/>
     <row r="53" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A53" s="18"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="20"/>
+      <c r="A53" s="24"/>
+      <c r="B53" s="25"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="25"/>
+      <c r="F53" s="25"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="25"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="26"/>
     </row>
     <row r="54" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A54" s="21"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="23"/>
+      <c r="A54" s="27"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="28"/>
+      <c r="D54" s="28"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="28"/>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
+      <c r="J54" s="29"/>
     </row>
     <row r="55" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A55" s="21"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="23"/>
-      <c r="P55" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A55" s="27"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="29"/>
     </row>
     <row r="56" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="23"/>
-      <c r="P56" s="17" t="s">
-        <v>53</v>
-      </c>
+      <c r="A56" s="27"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="29"/>
+      <c r="P56" s="17"/>
     </row>
     <row r="57" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A57" s="21"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="23"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="28"/>
+      <c r="D57" s="28"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="28"/>
+      <c r="G57" s="28"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
+      <c r="J57" s="29"/>
     </row>
     <row r="58" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A58" s="21"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="23"/>
+      <c r="A58" s="27"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="28"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="28"/>
+      <c r="G58" s="28"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
+      <c r="J58" s="29"/>
     </row>
     <row r="59" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A59" s="21"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="23"/>
+      <c r="A59" s="27"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="28"/>
+      <c r="G59" s="28"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
+      <c r="J59" s="29"/>
     </row>
     <row r="60" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A60" s="21"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="23"/>
+      <c r="A60" s="27"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="28"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="28"/>
+      <c r="G60" s="28"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
+      <c r="J60" s="29"/>
     </row>
     <row r="61" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="23"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="28"/>
+      <c r="G61" s="28"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
+      <c r="J61" s="29"/>
     </row>
     <row r="62" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A62" s="21"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="23"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="28"/>
+      <c r="G62" s="28"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
+      <c r="J62" s="29"/>
     </row>
     <row r="63" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A63" s="21"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="23"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="28"/>
+      <c r="D63" s="28"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="29"/>
     </row>
     <row r="64" spans="1:16" ht="12.75" customHeight="1">
-      <c r="A64" s="24"/>
-      <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="25"/>
-      <c r="E64" s="25"/>
-      <c r="F64" s="25"/>
-      <c r="G64" s="25"/>
-      <c r="H64" s="25"/>
-      <c r="I64" s="25"/>
-      <c r="J64" s="26"/>
+      <c r="A64" s="30"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="31"/>
+      <c r="D64" s="31"/>
+      <c r="E64" s="31"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
+      <c r="J64" s="32"/>
     </row>
     <row r="65" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="66" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A66" s="18"/>
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
+      <c r="A66" s="24"/>
+      <c r="B66" s="25"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="26"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A67" s="21"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="23"/>
+      <c r="A67" s="27"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="28"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
+      <c r="J67" s="29"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A68" s="21"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="23"/>
+      <c r="A68" s="27"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="28"/>
+      <c r="D68" s="28"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="28"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
+      <c r="J68" s="29"/>
     </row>
     <row r="69" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A69" s="21"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="23"/>
+      <c r="A69" s="27"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="28"/>
+      <c r="D69" s="28"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
+      <c r="J69" s="29"/>
     </row>
     <row r="70" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A70" s="21"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="23"/>
+      <c r="A70" s="27"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
+      <c r="J70" s="29"/>
     </row>
     <row r="71" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A71" s="21"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="23"/>
+      <c r="A71" s="27"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
+      <c r="J71" s="29"/>
     </row>
     <row r="72" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A72" s="21"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="23"/>
+      <c r="A72" s="27"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="28"/>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
+      <c r="J72" s="29"/>
     </row>
     <row r="73" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A73" s="21"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="23"/>
+      <c r="A73" s="27"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="28"/>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
+      <c r="J73" s="29"/>
     </row>
     <row r="74" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A74" s="21"/>
-      <c r="B74" s="22"/>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="23"/>
+      <c r="A74" s="27"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="28"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
+      <c r="J74" s="29"/>
     </row>
     <row r="75" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A75" s="21"/>
-      <c r="B75" s="22"/>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="23"/>
+      <c r="A75" s="27"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="28"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
+      <c r="J75" s="29"/>
     </row>
     <row r="76" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A76" s="21"/>
-      <c r="B76" s="22"/>
-      <c r="C76" s="22"/>
-      <c r="D76" s="22"/>
-      <c r="E76" s="22"/>
-      <c r="F76" s="22"/>
-      <c r="G76" s="22"/>
-      <c r="H76" s="22"/>
-      <c r="I76" s="22"/>
-      <c r="J76" s="23"/>
+      <c r="A76" s="27"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="28"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
+      <c r="J76" s="29"/>
     </row>
     <row r="77" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A77" s="24"/>
-      <c r="B77" s="25"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="25"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="25"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="25"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="26"/>
+      <c r="A77" s="30"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="31"/>
+      <c r="D77" s="31"/>
+      <c r="E77" s="31"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="32"/>
     </row>
     <row r="78" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="79" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="80" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="81" spans="16:16" ht="12.75" customHeight="1"/>
     <row r="82" spans="16:16" ht="12.75" customHeight="1"/>
-    <row r="83" spans="16:16" ht="12.75" customHeight="1">
-      <c r="P83" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
+    <row r="83" spans="16:16" ht="12.75" customHeight="1"/>
     <row r="84" spans="16:16" ht="12.75" customHeight="1">
-      <c r="P84" s="17" t="s">
-        <v>54</v>
-      </c>
+      <c r="P84" s="17"/>
     </row>
     <row r="85" spans="16:16" ht="12.75" customHeight="1"/>
     <row r="86" spans="16:16" ht="12.75" customHeight="1"/>
@@ -4221,30 +4157,24 @@
     <row r="94" spans="16:16" ht="12.75" customHeight="1"/>
     <row r="95" spans="16:16" ht="12.75" customHeight="1"/>
     <row r="96" spans="16:16" ht="12.75" customHeight="1"/>
-    <row r="97" spans="16:16" ht="12.75" customHeight="1"/>
-    <row r="98" spans="16:16" ht="12.75" customHeight="1"/>
-    <row r="99" spans="16:16" ht="12.75" customHeight="1"/>
-    <row r="100" spans="16:16" ht="12.75" customHeight="1"/>
-    <row r="101" spans="16:16" ht="12.75" customHeight="1"/>
-    <row r="102" spans="16:16" ht="12.75" customHeight="1"/>
-    <row r="103" spans="16:16" ht="12.75" customHeight="1"/>
-    <row r="104" spans="16:16" ht="12.75" customHeight="1"/>
-    <row r="105" spans="16:16" ht="12.75" customHeight="1"/>
-    <row r="106" spans="16:16" ht="12.75" customHeight="1"/>
-    <row r="107" spans="16:16" ht="12.75" customHeight="1"/>
-    <row r="108" spans="16:16" ht="12.75" customHeight="1"/>
-    <row r="109" spans="16:16" ht="12.75" customHeight="1"/>
-    <row r="110" spans="16:16" ht="12.75" customHeight="1"/>
-    <row r="111" spans="16:16" ht="12.75" customHeight="1"/>
-    <row r="112" spans="16:16" ht="12.75" customHeight="1">
-      <c r="P112" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
+    <row r="97" ht="12.75" customHeight="1"/>
+    <row r="98" ht="12.75" customHeight="1"/>
+    <row r="99" ht="12.75" customHeight="1"/>
+    <row r="100" ht="12.75" customHeight="1"/>
+    <row r="101" ht="12.75" customHeight="1"/>
+    <row r="102" ht="12.75" customHeight="1"/>
+    <row r="103" ht="12.75" customHeight="1"/>
+    <row r="104" ht="12.75" customHeight="1"/>
+    <row r="105" ht="12.75" customHeight="1"/>
+    <row r="106" ht="12.75" customHeight="1"/>
+    <row r="107" ht="12.75" customHeight="1"/>
+    <row r="108" ht="12.75" customHeight="1"/>
+    <row r="109" ht="12.75" customHeight="1"/>
+    <row r="110" ht="12.75" customHeight="1"/>
+    <row r="111" ht="12.75" customHeight="1"/>
+    <row r="112" ht="12.75" customHeight="1"/>
     <row r="113" spans="16:16" ht="12.75" customHeight="1">
-      <c r="P113" s="17" t="s">
-        <v>55</v>
-      </c>
+      <c r="P113" s="17"/>
     </row>
     <row r="114" spans="16:16" ht="12.75" customHeight="1"/>
     <row r="115" spans="16:16" ht="12.75" customHeight="1"/>
@@ -5129,14 +5059,14 @@
     <row r="994" s="4" customFormat="1" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A40:J51"/>
+    <mergeCell ref="A53:J64"/>
+    <mergeCell ref="A66:J77"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:J18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:J22"/>
+    <mergeCell ref="A27:J38"/>
     <mergeCell ref="B16:J16"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:J4"/>
@@ -5149,23 +5079,17 @@
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="B15:J15"/>
-    <mergeCell ref="A40:J51"/>
-    <mergeCell ref="A53:J64"/>
-    <mergeCell ref="A66:J77"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:J18"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:J22"/>
-    <mergeCell ref="A27:J38"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="P30" r:id="rId1" xr:uid="{5A44C642-AC8A-4963-BBE1-2AFB4FF769DD}"/>
-    <hyperlink ref="P56" r:id="rId2" xr:uid="{1ACCC26E-F7AF-4B62-944D-32E05AA6CC3A}"/>
-    <hyperlink ref="P84" r:id="rId3" xr:uid="{7C7FAE02-A5AF-4DF8-BA1C-1424C970D53E}"/>
-    <hyperlink ref="P113" r:id="rId4" xr:uid="{D47D6BF4-9ED2-436D-8B9B-BD842B28C8E7}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5173,8 +5097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6795D12-58D1-4E2E-80A8-E5BABBA725BF}">
   <dimension ref="A1:O995"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O55" sqref="O55:X56"/>
+    <sheetView topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.6"/>
@@ -5187,57 +5111,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="34"/>
       <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:11" ht="43.8" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="34"/>
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:11" ht="39.6" customHeight="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="37" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
@@ -5250,20 +5174,20 @@
       <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" ht="32.25" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
@@ -5278,10 +5202,10 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -5304,21 +5228,21 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="36" customHeight="1">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="31"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="34"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="6"/>
@@ -5337,133 +5261,133 @@
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="28"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:11" ht="13.5" customHeight="1">
       <c r="A12" s="10">
         <v>1</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="44"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1">
       <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="44"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="45"/>
     </row>
     <row r="14" spans="1:11" ht="16.2" customHeight="1">
       <c r="A14" s="10">
         <v>3</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="44"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="45"/>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
       <c r="A15" s="10">
         <v>4</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="44"/>
+      <c r="B15" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="45"/>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
       <c r="A16" s="10">
         <v>5</v>
       </c>
-      <c r="B16" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="44"/>
+      <c r="B16" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="45"/>
     </row>
     <row r="17" spans="1:15" ht="12.75" customHeight="1">
       <c r="A17" s="10">
         <v>6</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="45"/>
+      <c r="B17" s="44" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="46"/>
     </row>
     <row r="18" spans="1:15" ht="12.75" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
     </row>
     <row r="19" spans="1:15" ht="31.2" customHeight="1">
-      <c r="A19" s="27" t="s">
+      <c r="A19" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="1:15" ht="12.75" customHeight="1">
       <c r="A20" s="13"/>
@@ -5479,20 +5403,20 @@
     </row>
     <row r="22" spans="1:15" ht="12.75" customHeight="1"/>
     <row r="23" spans="1:15" ht="21.6" customHeight="1">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="34"/>
     </row>
     <row r="24" spans="1:15" ht="12.75" customHeight="1"/>
     <row r="25" spans="1:15" ht="12.75" customHeight="1"/>
@@ -5503,311 +5427,300 @@
     </row>
     <row r="27" spans="1:15" ht="12.75" customHeight="1"/>
     <row r="28" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
+      <c r="A28" s="24"/>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A29" s="21"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="23"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="23"/>
-      <c r="O30" s="4" t="s">
-        <v>40</v>
-      </c>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
     </row>
     <row r="31" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="23"/>
-      <c r="O31" s="17" t="s">
-        <v>51</v>
-      </c>
+      <c r="A31" s="27"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
+      <c r="O31" s="17"/>
     </row>
     <row r="32" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
     </row>
     <row r="33" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A33" s="21"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="23"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="29"/>
     </row>
     <row r="34" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A34" s="21"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23"/>
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="29"/>
     </row>
     <row r="35" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A35" s="21"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="23"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
     </row>
     <row r="36" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A36" s="21"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="23"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="29"/>
     </row>
     <row r="37" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A37" s="21"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="23"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="28"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
+      <c r="J37" s="29"/>
     </row>
     <row r="38" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A38" s="21"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="23"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="29"/>
     </row>
     <row r="39" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A39" s="24"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
+      <c r="A39" s="30"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="32"/>
     </row>
     <row r="40" spans="1:10" ht="12.75" customHeight="1"/>
     <row r="41" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
+      <c r="A41" s="24"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="26"/>
     </row>
     <row r="42" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="23"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
+      <c r="J42" s="29"/>
     </row>
     <row r="43" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="23"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
+      <c r="J43" s="29"/>
     </row>
     <row r="44" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A44" s="21"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="23"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="29"/>
     </row>
     <row r="45" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A45" s="21"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="23"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="29"/>
     </row>
     <row r="46" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A46" s="21"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="23"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
+      <c r="D46" s="28"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+      <c r="J46" s="29"/>
     </row>
     <row r="47" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="23"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="29"/>
     </row>
     <row r="48" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="23"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="28"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="29"/>
     </row>
     <row r="49" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A49" s="21"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="23"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="29"/>
     </row>
     <row r="50" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A50" s="21"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="23"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="29"/>
     </row>
     <row r="51" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A51" s="21"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="23"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="29"/>
     </row>
     <row r="52" spans="1:15" ht="12.75" customHeight="1">
-      <c r="A52" s="24"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="25"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="25"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="25"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="26"/>
+      <c r="A52" s="30"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="31"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="32"/>
     </row>
     <row r="53" spans="1:15" ht="12.75" customHeight="1"/>
     <row r="54" spans="1:15" ht="12.75" customHeight="1"/>
-    <row r="55" spans="1:15" ht="12.75" customHeight="1">
-      <c r="O55" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
+    <row r="55" spans="1:15" ht="12.75" customHeight="1"/>
     <row r="56" spans="1:15" ht="12.75" customHeight="1">
-      <c r="O56" s="17" t="s">
-        <v>52</v>
-      </c>
+      <c r="O56" s="17"/>
     </row>
     <row r="57" spans="1:15" ht="12.75" customHeight="1"/>
     <row r="58" spans="1:15" ht="12.75" customHeight="1">
@@ -6754,6 +6667,20 @@
     <row r="995" s="4" customFormat="1" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:J4"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="A28:J39"/>
     <mergeCell ref="A41:J52"/>
     <mergeCell ref="B11:J11"/>
@@ -6767,6 +6694,286 @@
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="A23:B23"/>
     <mergeCell ref="C23:J23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DF227B-CA78-4B3A-B52A-23A89EC95642}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="4"/>
+    <col min="2" max="2" width="11.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="12" style="4" customWidth="1"/>
+    <col min="4" max="8" width="8.88671875" style="4"/>
+    <col min="9" max="9" width="9.6640625" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="1:10" ht="33" customHeight="1">
+      <c r="A2" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="34"/>
+    </row>
+    <row r="3" spans="1:10" ht="33.6" customHeight="1">
+      <c r="A3" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="23"/>
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="44.4" customHeight="1">
+      <c r="A4" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="34"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+    </row>
+    <row r="8" spans="1:10" ht="30">
+      <c r="A8" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="34"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="10">
+        <v>1</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="45"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="10">
+        <v>2</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="45"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="34"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="34"/>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="N30" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:J15"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:J19"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:J4"/>
     <mergeCell ref="A6:B6"/>
@@ -6782,316 +6989,8 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:J2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="O31" r:id="rId1" xr:uid="{D8136300-93C8-4632-81F8-4C1C65195B1E}"/>
-    <hyperlink ref="O56" r:id="rId2" xr:uid="{FC35D709-D91C-4D82-8A6C-4BA851286511}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3DF227B-CA78-4B3A-B52A-23A89EC95642}">
-  <dimension ref="A1:N30"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:J1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="1" width="8.88671875" style="4"/>
-    <col min="2" max="2" width="11.109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="12" style="4" customWidth="1"/>
-    <col min="4" max="8" width="8.88671875" style="4"/>
-    <col min="9" max="9" width="9.6640625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
-    </row>
-    <row r="2" spans="1:10" ht="33" customHeight="1">
-      <c r="A2" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-    </row>
-    <row r="3" spans="1:10" ht="33.6" customHeight="1">
-      <c r="A3" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="44.4" customHeight="1">
-      <c r="A4" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="22"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-    </row>
-    <row r="8" spans="1:10" ht="30">
-      <c r="A8" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="31"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="28"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="10">
-        <v>1</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="44"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="10">
-        <v>2</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="44"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="N29" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="N30" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:J4"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:J15"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:J19"/>
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:J13"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="N30" r:id="rId1" xr:uid="{0A2B4652-770D-425A-A3A0-32DD11FD1BCB}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7099,8 +6998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FD72D3-274E-44F3-969F-936327212C05}">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection sqref="A1:J22"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7110,55 +7009,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="D1" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" ht="31.2" customHeight="1">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" ht="43.2" customHeight="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="37" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
@@ -7170,20 +7069,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="30.6" customHeight="1">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:10" ht="15.6">
       <c r="A5" s="5"/>
@@ -7198,10 +7097,10 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="15.6">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7224,21 +7123,21 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="30">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="31"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="34"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -7271,49 +7170,49 @@
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="28"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="10">
         <v>1</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="44"/>
+      <c r="B12" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="44"/>
+      <c r="B13" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="45"/>
     </row>
     <row r="14" spans="1:10" ht="15.6">
       <c r="A14" s="11"/>
@@ -7328,20 +7227,20 @@
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" ht="15.6">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="34"/>
     </row>
     <row r="16" spans="1:10" ht="15.6">
       <c r="A16" s="13"/>
@@ -7380,20 +7279,20 @@
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:14" ht="15.6">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="34"/>
     </row>
     <row r="20" spans="1:14" ht="15.6">
       <c r="A20" s="4"/>
@@ -7433,26 +7332,11 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="28" spans="1:14">
-      <c r="N28" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="29" spans="1:14">
-      <c r="N29" s="1" t="s">
-        <v>73</v>
-      </c>
+      <c r="N29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:J19"/>
     <mergeCell ref="A4:B4"/>
@@ -7466,12 +7350,17 @@
     <mergeCell ref="B13:J13"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:J15"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="N29" r:id="rId1" xr:uid="{B4BE7180-5A11-41A7-8ECD-DAA9DEBA6250}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7479,8 +7368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D58030C-9FFE-41C0-B7C6-3BADFA887B3E}">
   <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:J2"/>
+    <sheetView topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7491,55 +7380,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
+      <c r="B1" s="49"/>
       <c r="C1" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="28"/>
-      <c r="F1" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:10" ht="50.4" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" ht="49.2" customHeight="1">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="37" t="s">
+      <c r="B3" s="49"/>
+      <c r="C3" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="33"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="3" t="s">
         <v>5</v>
       </c>
@@ -7551,20 +7440,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="74.400000000000006" customHeight="1">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:10" ht="15.6">
       <c r="A5" s="5"/>
@@ -7579,10 +7468,10 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="15.6">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="22"/>
+      <c r="B6" s="28"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -7605,21 +7494,21 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="30">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="28"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="28"/>
-      <c r="F8" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="31"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="34"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -7652,65 +7541,65 @@
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="28"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="10">
         <v>1</v>
       </c>
-      <c r="B12" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="44"/>
+      <c r="B12" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="45"/>
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="10">
         <v>2</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="44"/>
+      <c r="B13" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="45"/>
     </row>
     <row r="14" spans="1:10" ht="15">
-      <c r="A14" s="48">
+      <c r="A14" s="18">
         <v>3</v>
       </c>
-      <c r="B14" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
+      <c r="B14" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" ht="15.6">
       <c r="A15" s="11"/>
@@ -7725,20 +7614,20 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" ht="55.2" customHeight="1">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="34"/>
     </row>
     <row r="17" spans="1:15" ht="15.6">
       <c r="A17" s="13"/>
@@ -7777,20 +7666,20 @@
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:15" ht="40.799999999999997" customHeight="1">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="34"/>
     </row>
     <row r="21" spans="1:15" ht="15.6">
       <c r="A21" s="4"/>
@@ -7830,53 +7719,28 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="26" spans="1:15">
-      <c r="O26" t="s">
-        <v>40</v>
-      </c>
-    </row>
     <row r="27" spans="1:15">
-      <c r="O27" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="54" spans="15:15">
-      <c r="O54" t="s">
-        <v>40</v>
-      </c>
+      <c r="O27" s="1"/>
     </row>
     <row r="55" spans="15:15">
-      <c r="O55" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="81" spans="15:15">
-      <c r="O81" t="s">
-        <v>40</v>
-      </c>
+      <c r="O55" s="1"/>
     </row>
     <row r="82" spans="15:15">
-      <c r="O82" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="110" spans="15:15">
-      <c r="O110" t="s">
-        <v>40</v>
-      </c>
+      <c r="O82" s="1"/>
     </row>
     <row r="111" spans="15:15">
-      <c r="O111" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="O111" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B11:J11"/>
-    <mergeCell ref="B12:J12"/>
-    <mergeCell ref="B13:J13"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:J16"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:J2"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="C20:J20"/>
     <mergeCell ref="B14:J14"/>
@@ -7886,22 +7750,13 @@
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:J2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B11:J11"/>
+    <mergeCell ref="B12:J12"/>
+    <mergeCell ref="B13:J13"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:J16"/>
   </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="O27" r:id="rId1" xr:uid="{7CCC9C27-11A4-4CA1-B6E2-A4284E4ABBBF}"/>
-    <hyperlink ref="O55" r:id="rId2" xr:uid="{1D19D327-4F6E-4C90-972F-E0E409487E89}"/>
-    <hyperlink ref="O82" r:id="rId3" xr:uid="{5679B8B1-CE2E-44A0-A497-BD5AD11E51B7}"/>
-    <hyperlink ref="O111" r:id="rId4" xr:uid="{E502FF26-A8C0-46EB-AC3E-55033F4433CA}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>